--- a/assets/templates/import-incomes-template.xlsx
+++ b/assets/templates/import-incomes-template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Waterfall ID</t>
   </si>
@@ -32,6 +32,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Contract ID
 </t>
@@ -43,12 +44,60 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">// Root contract ID</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Territories</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Territories included
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">// Add all the territories for this income. If "World" is selected, please do not add other territories.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Territories excluded
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="6"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">// Territories to exclude from previous column.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Medias</t>
@@ -102,17 +151,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -121,6 +164,14 @@
     <font>
       <b val="true"/>
       <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="6"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -164,7 +215,7 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -225,11 +276,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -237,19 +292,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -259,6 +306,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -338,15 +389,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A10:AL10"/>
+  <dimension ref="A10:AL40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.86"/>
   </cols>
   <sheetData>
     <row r="10" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -356,54 +410,386 @@
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/assets/templates/import-incomes-template.xlsx
+++ b/assets/templates/import-incomes-template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Waterfall ID</t>
   </si>
@@ -48,6 +48,9 @@
       </rPr>
       <t xml:space="preserve">// Root contract ID</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Source ID</t>
   </si>
   <si>
     <r>
@@ -389,18 +392,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A10:AL40"/>
+  <dimension ref="A10:AM40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.86"/>
   </cols>
   <sheetData>
     <row r="10" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -413,16 +416,16 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -431,18 +434,20 @@
       <c r="I10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
+      <c r="L10" s="3"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="7"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="6"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="9"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="8"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
@@ -460,6 +465,7 @@
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
       <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
@@ -471,6 +477,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
@@ -482,6 +489,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
@@ -493,6 +501,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
@@ -504,6 +513,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
@@ -515,6 +525,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
@@ -526,6 +537,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
@@ -537,6 +549,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
@@ -548,6 +561,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
@@ -559,6 +573,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
@@ -570,6 +585,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
@@ -581,6 +597,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
@@ -592,6 +609,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10"/>
@@ -603,6 +621,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
@@ -614,6 +633,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
@@ -625,6 +645,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
@@ -636,6 +657,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
@@ -647,6 +669,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
@@ -658,6 +681,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10"/>
@@ -669,6 +693,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
@@ -680,6 +705,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
@@ -691,6 +717,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10"/>
@@ -702,6 +729,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10"/>
@@ -713,6 +741,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10"/>
@@ -724,6 +753,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10"/>
@@ -735,6 +765,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10"/>
@@ -746,6 +777,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10"/>
@@ -757,6 +789,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10"/>
@@ -768,6 +801,7 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10"/>
@@ -779,6 +813,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10"/>
@@ -790,6 +825,7 @@
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/assets/templates/import-incomes-template.xlsx
+++ b/assets/templates/import-incomes-template.xlsx
@@ -22,7 +22,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t xml:space="preserve">Waterfall ID</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">International Title 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">// Or Waterfall Id</t>
+    </r>
   </si>
   <si>
     <r>
@@ -395,13 +417,13 @@
   <dimension ref="A10:AM40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.86"/>
   </cols>

--- a/assets/templates/import-incomes-template.xlsx
+++ b/assets/templates/import-incomes-template.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">Provide Source Name only if Source does not have territories or medias</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -72,14 +75,14 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Source ID</t>
+    <t xml:space="preserve">Source Name</t>
   </si>
   <si>
     <r>
       <rPr>
         <b val="true"/>
         <sz val="8"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
         <family val="0"/>
         <charset val="1"/>
@@ -91,7 +94,7 @@
       <rPr>
         <b val="true"/>
         <sz val="6"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
         <family val="0"/>
         <charset val="1"/>
@@ -148,7 +151,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -169,6 +172,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -219,14 +230,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFEEA7B"/>
-        <bgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0B5394"/>
-        <bgColor rgb="FF003366"/>
+        <fgColor rgb="FFFEEA7B"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -292,44 +303,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,7 +385,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0B5394"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -414,13 +429,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A10:AM40"/>
+  <dimension ref="A9:AM40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:J10"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
@@ -428,428 +443,439 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.86"/>
   </cols>
   <sheetData>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
     <row r="10" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
+      <c r="J10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:F9"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
